--- a/gd/p4/communities_geoloc.xlsx
+++ b/gd/p4/communities_geoloc.xlsx
@@ -1,34 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11211"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/glorelvalle/Desktop/Master/mucd-mg/gd/p4/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0896FAE-2747-8744-8155-392A5C4BA5C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>long</t>
-  </si>
-  <si>
-    <t>lat</t>
+    <t>Comunidad Autonoma</t>
+  </si>
+  <si>
+    <t>Longitud</t>
+  </si>
+  <si>
+    <t>Latitud</t>
   </si>
   <si>
     <t>Andalucía</t>
@@ -49,7 +43,7 @@
     <t>Castilla y León</t>
   </si>
   <si>
-    <t>Castilla-La Mancha</t>
+    <t>Castilla La Mancha</t>
   </si>
   <si>
     <t>Cataluña</t>
@@ -67,10 +61,10 @@
     <t>La Rioja</t>
   </si>
   <si>
-    <t>Madrid</t>
-  </si>
-  <si>
-    <t>Murcia</t>
+    <t>Comunidad de Madrid</t>
+  </si>
+  <si>
+    <t>Región de Murcia</t>
   </si>
   <si>
     <t>Navarra</t>
@@ -79,7 +73,7 @@
     <t>País Vasco</t>
   </si>
   <si>
-    <t>Comunidad Valencia</t>
+    <t>Comunidad Valenciana</t>
   </si>
   <si>
     <t>Ceuta</t>
@@ -91,8 +85,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -155,19 +149,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -209,7 +195,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -241,27 +227,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -293,24 +261,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -486,233 +436,288 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:4">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>-4.5</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>37.6</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>-1</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="B4">
-        <v>-5.8611199999999997</v>
-      </c>
       <c r="C4">
-        <v>43.366619999999998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+        <v>-5.86112</v>
+      </c>
+      <c r="D4">
+        <v>43.36662</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>-15.5</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="6" spans="1:4">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
         <v>7</v>
       </c>
-      <c r="B6">
-        <v>-4.0333300000000003</v>
-      </c>
       <c r="C6">
+        <v>-4.03333</v>
+      </c>
+      <c r="D6">
         <v>43.2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="7" spans="1:4">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
         <v>8</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>-4.45</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>41.383333</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+    <row r="8" spans="1:4">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
         <v>9</v>
       </c>
-      <c r="B8">
-        <v>-3.0000330000000002</v>
-      </c>
       <c r="C8">
-        <v>39.500011000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+        <v>-3.000033</v>
+      </c>
+      <c r="D8">
+        <v>39.500011</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
         <v>10</v>
       </c>
-      <c r="B9">
+      <c r="C9">
         <v>1.86768</v>
       </c>
-      <c r="C9">
-        <v>41.820459999999997</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="D9">
+        <v>41.82046</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
         <v>11</v>
       </c>
-      <c r="B10">
-        <v>-6.1666699999999999</v>
-      </c>
       <c r="C10">
-        <v>39.166670000000003</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+        <v>-6.16667</v>
+      </c>
+      <c r="D10">
+        <v>39.16667</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
         <v>12</v>
       </c>
-      <c r="B11">
-        <v>-7.8662099999999997</v>
-      </c>
       <c r="C11">
+        <v>-7.86621</v>
+      </c>
+      <c r="D11">
         <v>42.75508</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+    <row r="12" spans="1:4">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
         <v>13</v>
       </c>
-      <c r="B12">
+      <c r="C12">
         <v>2.52136</v>
       </c>
-      <c r="C12">
-        <v>39.189689999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="D12">
+        <v>39.18969</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
         <v>14</v>
       </c>
-      <c r="B13">
+      <c r="C13">
         <v>-2.44373</v>
       </c>
-      <c r="C13">
-        <v>42.465000000000003</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="D13">
+        <v>42.465</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
         <v>15</v>
       </c>
-      <c r="B14">
-        <v>-3.7025600000000001</v>
-      </c>
       <c r="C14">
-        <v>40.416499999999999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+        <v>-3.70256</v>
+      </c>
+      <c r="D14">
+        <v>40.4165</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
         <v>16</v>
       </c>
-      <c r="B15">
-        <v>-1.1300399999999999</v>
-      </c>
       <c r="C15">
+        <v>-1.13004</v>
+      </c>
+      <c r="D15">
         <v>37.98704</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+    <row r="16" spans="1:4">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
         <v>17</v>
       </c>
-      <c r="B16">
+      <c r="C16">
         <v>-1.676069</v>
       </c>
-      <c r="C16">
-        <v>42.695391000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="D16">
+        <v>42.695391</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
         <v>18</v>
       </c>
-      <c r="B17">
+      <c r="C17">
         <v>-2.75</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+    <row r="18" spans="1:4">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
         <v>19</v>
       </c>
-      <c r="B18">
+      <c r="C18">
         <v>-0.37739</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>39.45975</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+    <row r="19" spans="1:4">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
         <v>20</v>
       </c>
-      <c r="B19">
-        <v>-5.3161949999999996</v>
-      </c>
       <c r="C19">
-        <v>35.888289999999998</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+        <v>-5.316195</v>
+      </c>
+      <c r="D19">
+        <v>35.88829</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
         <v>21</v>
       </c>
-      <c r="B20">
-        <v>-2.9387940000000001</v>
-      </c>
       <c r="C20">
-        <v>35.292340000000003</v>
+        <v>-2.938794</v>
+      </c>
+      <c r="D20">
+        <v>35.29234</v>
       </c>
     </row>
   </sheetData>
